--- a/data/raw/2.-Kandidatët-e-zgjedhur-sipas-Subjekteve.xlsx
+++ b/data/raw/2.-Kandidatët-e-zgjedhur-sipas-Subjekteve.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0043cyc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Personal\kosovo-past-elections\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24F90CA-D1D3-4505-8087-8B061931A77C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D4EC2C-5D07-44CD-AFA5-30B1F72E17C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="2040" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Parliament " sheetId="2" r:id="rId2"/>
+    <sheet name="Parliament Summarized" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="280">
   <si>
     <r>
       <rPr>
@@ -2400,6 +2409,27 @@
   </si>
   <si>
     <t>PRBK</t>
+  </si>
+  <si>
+    <t>MINORITETET</t>
+  </si>
+  <si>
+    <t>LDK</t>
+  </si>
+  <si>
+    <t>PDK</t>
+  </si>
+  <si>
+    <t>AAK-PSD</t>
+  </si>
+  <si>
+    <t>NISMA-AKR-PD</t>
+  </si>
+  <si>
+    <t>ALTERNATIVA</t>
+  </si>
+  <si>
+    <t>TJERA</t>
   </si>
 </sst>
 </file>
@@ -2418,6 +2448,13 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -2426,23 +2463,22 @@
     <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -2644,182 +2680,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2834,11 +2711,196 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2885,10 +2947,27 @@
     <tableColumn id="2" xr3:uid="{239A1893-253A-47CF-8564-FD2DFC1A8ABE}" name="country"/>
     <tableColumn id="3" xr3:uid="{CF12FA0E-6D3C-4C36-B723-598A69288BB6}" name="house"/>
     <tableColumn id="4" xr3:uid="{CDCC6040-4A1E-4E52-B8DB-C9EFDADFF3E5}" name="party_long"/>
-    <tableColumn id="5" xr3:uid="{F9ABA174-4151-4714-ABCD-169A94A2CC3A}" name="party_short" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{F9ABA174-4151-4714-ABCD-169A94A2CC3A}" name="party_short" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{A22AE279-4A85-4F76-ABAA-B4A48F97804C}" name="seats"/>
     <tableColumn id="7" xr3:uid="{C4AFE6B8-9903-411D-AB05-76CD3208C95B}" name="government"/>
     <tableColumn id="8" xr3:uid="{E5562A7A-60FF-42DA-942D-E703C7843210}" name="colour"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B6CF93B1-EDF5-4E0A-8D63-46A262CF8A3C}" name="Table13" displayName="Table13" ref="A1:H12" totalsRowShown="0">
+  <autoFilter ref="A1:H12" xr:uid="{30B7C9F9-577A-4EF0-A78C-0F5E87B83DAA}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{30FA6371-75DA-48D8-90AC-5ED99705FCDE}" name="year"/>
+    <tableColumn id="2" xr3:uid="{D68BFDF4-3E16-424A-B1F6-59F2E9A2850A}" name="country"/>
+    <tableColumn id="3" xr3:uid="{516D270D-7E97-4428-BFC1-5F92CBB90611}" name="house"/>
+    <tableColumn id="4" xr3:uid="{BF6B29B1-F7C0-43AC-B3FC-DC8DD28A196E}" name="party_long"/>
+    <tableColumn id="5" xr3:uid="{46259317-95A9-4F2C-9121-D121B2B71417}" name="party_short" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{AA091CB7-81CD-4023-B58E-CFA89DFB028B}" name="seats"/>
+    <tableColumn id="7" xr3:uid="{F2E2805F-6485-42EE-A19B-F86BD6C3A012}" name="government"/>
+    <tableColumn id="8" xr3:uid="{66B0E34A-9A94-4027-B74C-65CE16AFD451}" name="colour"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3238,71 +3317,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
     </row>
     <row r="2" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57" t="s">
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="57"/>
+      <c r="M2" s="62"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="36">
         <v>129947</v>
       </c>
-      <c r="M3" s="14"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -3955,371 +4034,371 @@
       <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="44">
+      <c r="A30" s="49">
         <v>19</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46" t="s">
+      <c r="B30" s="50"/>
+      <c r="C30" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="46" t="s">
+      <c r="D30" s="52"/>
+      <c r="E30" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" s="50"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="52">
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="55"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="57">
         <v>10153</v>
       </c>
-      <c r="M30" s="53"/>
+      <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37">
+      <c r="A31" s="42">
         <v>77</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38" t="s">
+      <c r="B31" s="42"/>
+      <c r="C31" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38" t="s">
+      <c r="D31" s="43"/>
+      <c r="E31" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="40">
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="45">
         <v>10114</v>
       </c>
-      <c r="M31" s="40"/>
+      <c r="M31" s="45"/>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37">
+      <c r="A32" s="42">
         <v>26</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38" t="s">
+      <c r="B32" s="42"/>
+      <c r="C32" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38" t="s">
+      <c r="D32" s="43"/>
+      <c r="E32" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="40">
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="45">
         <v>9905</v>
       </c>
-      <c r="M32" s="40"/>
+      <c r="M32" s="45"/>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="37">
+      <c r="A33" s="42">
         <v>92</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38" t="s">
+      <c r="B33" s="42"/>
+      <c r="C33" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38" t="s">
+      <c r="D33" s="43"/>
+      <c r="E33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="40">
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="45">
         <v>9844</v>
       </c>
-      <c r="M33" s="40"/>
+      <c r="M33" s="45"/>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="37">
+      <c r="A34" s="42">
         <v>45</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38" t="s">
+      <c r="B34" s="42"/>
+      <c r="C34" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38" t="s">
+      <c r="D34" s="43"/>
+      <c r="E34" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="39" t="s">
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="40">
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="45">
         <v>9473</v>
       </c>
-      <c r="M34" s="40"/>
+      <c r="M34" s="45"/>
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="37">
+      <c r="A35" s="42">
         <v>33</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38" t="s">
+      <c r="B35" s="42"/>
+      <c r="C35" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38" t="s">
+      <c r="D35" s="43"/>
+      <c r="E35" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="39" t="s">
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="40">
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="45">
         <v>8711</v>
       </c>
-      <c r="M35" s="40"/>
+      <c r="M35" s="45"/>
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="37">
+      <c r="A36" s="42">
         <v>69</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="38" t="s">
+      <c r="B36" s="42"/>
+      <c r="C36" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38" t="s">
+      <c r="D36" s="43"/>
+      <c r="E36" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="39" t="s">
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="40">
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="45">
         <v>7774</v>
       </c>
-      <c r="M36" s="40"/>
+      <c r="M36" s="45"/>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="41">
+      <c r="A37" s="46">
         <v>3</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="42" t="s">
+      <c r="B37" s="46"/>
+      <c r="C37" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42" t="s">
+      <c r="D37" s="47"/>
+      <c r="E37" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="41" t="s">
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="43">
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="48">
         <v>7566</v>
       </c>
-      <c r="M37" s="41"/>
+      <c r="M37" s="46"/>
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="37">
+      <c r="A38" s="42">
         <v>57</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="38" t="s">
+      <c r="B38" s="42"/>
+      <c r="C38" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38" t="s">
+      <c r="D38" s="43"/>
+      <c r="E38" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="39" t="s">
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="40">
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="45">
         <v>6963</v>
       </c>
-      <c r="M38" s="40"/>
+      <c r="M38" s="45"/>
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="37">
+      <c r="A39" s="42">
         <v>36</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38" t="s">
+      <c r="B39" s="42"/>
+      <c r="C39" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38" t="s">
+      <c r="D39" s="43"/>
+      <c r="E39" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39" t="s">
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="40">
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="45">
         <v>6819</v>
       </c>
-      <c r="M39" s="40"/>
+      <c r="M39" s="45"/>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="37">
+      <c r="A40" s="42">
         <v>21</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="38" t="s">
+      <c r="B40" s="42"/>
+      <c r="C40" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38" t="s">
+      <c r="D40" s="43"/>
+      <c r="E40" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39" t="s">
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="40">
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="45">
         <v>6721</v>
       </c>
-      <c r="M40" s="40"/>
+      <c r="M40" s="45"/>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="37">
+      <c r="A41" s="42">
         <v>39</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="38" t="s">
+      <c r="B41" s="42"/>
+      <c r="C41" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38" t="s">
+      <c r="D41" s="43"/>
+      <c r="E41" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="39" t="s">
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="40">
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="45">
         <v>6671</v>
       </c>
-      <c r="M41" s="40"/>
+      <c r="M41" s="45"/>
     </row>
     <row r="42" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
     </row>
     <row r="43" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="6" t="s">
+      <c r="B43" s="19"/>
+      <c r="C43" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6" t="s">
+      <c r="D43" s="20"/>
+      <c r="E43" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6" t="s">
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6" t="s">
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M43" s="6"/>
+      <c r="M43" s="20"/>
     </row>
     <row r="44" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12">
+      <c r="A44" s="16">
         <v>1</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="17" t="s">
+      <c r="B44" s="13"/>
+      <c r="C44" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="17" t="s">
+      <c r="D44" s="33"/>
+      <c r="E44" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="21">
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="11"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="36">
         <v>143621</v>
       </c>
-      <c r="M44" s="14"/>
+      <c r="M44" s="18"/>
     </row>
     <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="22">
@@ -5097,59 +5176,59 @@
       <c r="M75" s="31"/>
     </row>
     <row r="76" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="60" t="s">
+      <c r="A76" s="7" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="6" t="s">
+      <c r="B77" s="19"/>
+      <c r="C77" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6" t="s">
+      <c r="D77" s="20"/>
+      <c r="E77" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6" t="s">
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6" t="s">
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M77" s="6"/>
+      <c r="M77" s="20"/>
     </row>
     <row r="78" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="12">
+      <c r="A78" s="16">
         <v>1</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="17" t="s">
+      <c r="B78" s="13"/>
+      <c r="C78" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="17" t="s">
+      <c r="D78" s="33"/>
+      <c r="E78" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J78" s="8"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="21">
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J78" s="11"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="36">
         <v>115693</v>
       </c>
-      <c r="M78" s="14"/>
+      <c r="M78" s="18"/>
     </row>
     <row r="79" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="22">
@@ -5852,59 +5931,59 @@
       <c r="M106" s="31"/>
     </row>
     <row r="107" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="61" t="s">
+      <c r="A107" s="8" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B108" s="15"/>
-      <c r="C108" s="6" t="s">
+      <c r="B108" s="19"/>
+      <c r="C108" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6" t="s">
+      <c r="D108" s="20"/>
+      <c r="E108" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6" t="s">
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6" t="s">
+      <c r="J108" s="20"/>
+      <c r="K108" s="20"/>
+      <c r="L108" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M108" s="6"/>
+      <c r="M108" s="20"/>
     </row>
     <row r="109" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="12">
+      <c r="A109" s="16">
         <v>11</v>
       </c>
-      <c r="B109" s="10"/>
-      <c r="C109" s="17" t="s">
+      <c r="B109" s="13"/>
+      <c r="C109" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="D109" s="18"/>
-      <c r="E109" s="35" t="s">
+      <c r="D109" s="33"/>
+      <c r="E109" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J109" s="8"/>
-      <c r="K109" s="20"/>
-      <c r="L109" s="21">
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J109" s="11"/>
+      <c r="K109" s="35"/>
+      <c r="L109" s="36">
         <v>13665</v>
       </c>
-      <c r="M109" s="14"/>
+      <c r="M109" s="18"/>
     </row>
     <row r="110" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="22">
@@ -5915,12 +5994,12 @@
         <v>186</v>
       </c>
       <c r="D110" s="25"/>
-      <c r="E110" s="32" t="s">
+      <c r="E110" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="34"/>
+      <c r="F110" s="40"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="41"/>
       <c r="I110" s="27" t="s">
         <v>24</v>
       </c>
@@ -5940,12 +6019,12 @@
         <v>188</v>
       </c>
       <c r="D111" s="25"/>
-      <c r="E111" s="32" t="s">
+      <c r="E111" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="34"/>
+      <c r="F111" s="40"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="41"/>
       <c r="I111" s="27" t="s">
         <v>8</v>
       </c>
@@ -5965,12 +6044,12 @@
         <v>190</v>
       </c>
       <c r="D112" s="25"/>
-      <c r="E112" s="32" t="s">
+      <c r="E112" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="34"/>
+      <c r="F112" s="40"/>
+      <c r="G112" s="40"/>
+      <c r="H112" s="41"/>
       <c r="I112" s="27" t="s">
         <v>24</v>
       </c>
@@ -5990,12 +6069,12 @@
         <v>192</v>
       </c>
       <c r="D113" s="25"/>
-      <c r="E113" s="32" t="s">
+      <c r="E113" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="34"/>
+      <c r="F113" s="40"/>
+      <c r="G113" s="40"/>
+      <c r="H113" s="41"/>
       <c r="I113" s="27" t="s">
         <v>24</v>
       </c>
@@ -6015,12 +6094,12 @@
         <v>194</v>
       </c>
       <c r="D114" s="25"/>
-      <c r="E114" s="32" t="s">
+      <c r="E114" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="34"/>
+      <c r="F114" s="40"/>
+      <c r="G114" s="40"/>
+      <c r="H114" s="41"/>
       <c r="I114" s="27" t="s">
         <v>24</v>
       </c>
@@ -6040,12 +6119,12 @@
         <v>196</v>
       </c>
       <c r="D115" s="25"/>
-      <c r="E115" s="32" t="s">
+      <c r="E115" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="34"/>
+      <c r="F115" s="40"/>
+      <c r="G115" s="40"/>
+      <c r="H115" s="41"/>
       <c r="I115" s="27" t="s">
         <v>8</v>
       </c>
@@ -6065,12 +6144,12 @@
         <v>198</v>
       </c>
       <c r="D116" s="25"/>
-      <c r="E116" s="32" t="s">
+      <c r="E116" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="34"/>
+      <c r="F116" s="40"/>
+      <c r="G116" s="40"/>
+      <c r="H116" s="41"/>
       <c r="I116" s="27" t="s">
         <v>8</v>
       </c>
@@ -6090,12 +6169,12 @@
         <v>199</v>
       </c>
       <c r="D117" s="25"/>
-      <c r="E117" s="32" t="s">
+      <c r="E117" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="F117" s="33"/>
-      <c r="G117" s="33"/>
-      <c r="H117" s="34"/>
+      <c r="F117" s="40"/>
+      <c r="G117" s="40"/>
+      <c r="H117" s="41"/>
       <c r="I117" s="27" t="s">
         <v>8</v>
       </c>
@@ -6107,59 +6186,59 @@
       <c r="M117" s="31"/>
     </row>
     <row r="118" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="61" t="s">
+      <c r="A118" s="8" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B119" s="15"/>
-      <c r="C119" s="6" t="s">
+      <c r="B119" s="19"/>
+      <c r="C119" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6" t="s">
+      <c r="D119" s="20"/>
+      <c r="E119" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6" t="s">
+      <c r="F119" s="20"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-      <c r="L119" s="6" t="s">
+      <c r="J119" s="20"/>
+      <c r="K119" s="20"/>
+      <c r="L119" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M119" s="6"/>
+      <c r="M119" s="20"/>
     </row>
     <row r="120" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="12">
+      <c r="A120" s="16">
         <v>5</v>
       </c>
-      <c r="B120" s="10"/>
-      <c r="C120" s="35" t="s">
+      <c r="B120" s="13"/>
+      <c r="C120" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="D120" s="36"/>
-      <c r="E120" s="17" t="s">
+      <c r="D120" s="38"/>
+      <c r="E120" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J120" s="8"/>
-      <c r="K120" s="20"/>
-      <c r="L120" s="21">
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J120" s="11"/>
+      <c r="K120" s="35"/>
+      <c r="L120" s="36">
         <v>2980</v>
       </c>
-      <c r="M120" s="14"/>
+      <c r="M120" s="18"/>
     </row>
     <row r="121" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="22">
@@ -6170,12 +6249,12 @@
         <v>203</v>
       </c>
       <c r="D121" s="25"/>
-      <c r="E121" s="32" t="s">
+      <c r="E121" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="F121" s="33"/>
-      <c r="G121" s="33"/>
-      <c r="H121" s="34"/>
+      <c r="F121" s="40"/>
+      <c r="G121" s="40"/>
+      <c r="H121" s="41"/>
       <c r="I121" s="27" t="s">
         <v>24</v>
       </c>
@@ -6187,59 +6266,59 @@
       <c r="M121" s="31"/>
     </row>
     <row r="122" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="61" t="s">
+      <c r="A122" s="8" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B123" s="15"/>
-      <c r="C123" s="6" t="s">
+      <c r="B123" s="19"/>
+      <c r="C123" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6" t="s">
+      <c r="D123" s="20"/>
+      <c r="E123" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6" t="s">
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J123" s="6"/>
-      <c r="K123" s="6"/>
-      <c r="L123" s="6" t="s">
+      <c r="J123" s="20"/>
+      <c r="K123" s="20"/>
+      <c r="L123" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M123" s="6"/>
+      <c r="M123" s="20"/>
     </row>
     <row r="124" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="12">
+      <c r="A124" s="16">
         <v>1</v>
       </c>
-      <c r="B124" s="10"/>
-      <c r="C124" s="17" t="s">
+      <c r="B124" s="13"/>
+      <c r="C124" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D124" s="18"/>
-      <c r="E124" s="17" t="s">
+      <c r="D124" s="33"/>
+      <c r="E124" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J124" s="8"/>
-      <c r="K124" s="20"/>
-      <c r="L124" s="21">
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="33"/>
+      <c r="I124" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J124" s="11"/>
+      <c r="K124" s="35"/>
+      <c r="L124" s="36">
         <v>2775</v>
       </c>
-      <c r="M124" s="14"/>
+      <c r="M124" s="18"/>
     </row>
     <row r="125" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="22">
@@ -6267,7 +6346,7 @@
       <c r="M125" s="31"/>
     </row>
     <row r="126" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="61" t="s">
+      <c r="A126" s="8" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6275,54 +6354,54 @@
       <c r="A127" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6" t="s">
+      <c r="C127" s="20"/>
+      <c r="D127" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6" t="s">
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I127" s="6"/>
-      <c r="J127" s="6"/>
-      <c r="K127" s="6" t="s">
+      <c r="I127" s="20"/>
+      <c r="J127" s="20"/>
+      <c r="K127" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L127" s="6"/>
-      <c r="M127" s="6"/>
+      <c r="L127" s="20"/>
+      <c r="M127" s="20"/>
     </row>
     <row r="128" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>1</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7" t="s">
+      <c r="C128" s="10"/>
+      <c r="D128" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="13">
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="17">
         <v>1382</v>
       </c>
-      <c r="L128" s="13"/>
-      <c r="M128" s="14"/>
+      <c r="L128" s="17"/>
+      <c r="M128" s="18"/>
     </row>
     <row r="129" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="61" t="s">
+      <c r="A129" s="8" t="s">
         <v>255</v>
       </c>
     </row>
@@ -6330,109 +6409,109 @@
       <c r="A130" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6" t="s">
+      <c r="C130" s="20"/>
+      <c r="D130" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6" t="s">
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I130" s="6"/>
-      <c r="J130" s="6"/>
-      <c r="K130" s="6" t="s">
+      <c r="I130" s="20"/>
+      <c r="J130" s="20"/>
+      <c r="K130" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L130" s="6"/>
-      <c r="M130" s="6"/>
+      <c r="L130" s="20"/>
+      <c r="M130" s="20"/>
     </row>
     <row r="131" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>1</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7" t="s">
+      <c r="C131" s="10"/>
+      <c r="D131" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
-      <c r="K131" s="13">
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="17">
         <v>1211</v>
       </c>
-      <c r="L131" s="13"/>
-      <c r="M131" s="14"/>
+      <c r="L131" s="17"/>
+      <c r="M131" s="18"/>
     </row>
     <row r="132" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="61" t="s">
+      <c r="A132" s="8" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="15" t="s">
+      <c r="A133" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B133" s="15"/>
+      <c r="B133" s="19"/>
       <c r="C133" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D133" s="6" t="s">
+      <c r="D133" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6" t="s">
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I133" s="6"/>
-      <c r="J133" s="6"/>
-      <c r="K133" s="6" t="s">
+      <c r="I133" s="20"/>
+      <c r="J133" s="20"/>
+      <c r="K133" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L133" s="6"/>
-      <c r="M133" s="6"/>
+      <c r="L133" s="20"/>
+      <c r="M133" s="20"/>
     </row>
     <row r="134" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="12">
+      <c r="A134" s="16">
         <v>1</v>
       </c>
-      <c r="B134" s="9"/>
+      <c r="B134" s="12"/>
       <c r="C134" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I134" s="8"/>
-      <c r="J134" s="8"/>
-      <c r="K134" s="13">
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="17">
         <v>1270</v>
       </c>
-      <c r="L134" s="13"/>
-      <c r="M134" s="14"/>
+      <c r="L134" s="17"/>
+      <c r="M134" s="18"/>
     </row>
     <row r="135" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="61" t="s">
+      <c r="A135" s="8" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6440,164 +6519,164 @@
       <c r="A136" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6" t="s">
+      <c r="C136" s="20"/>
+      <c r="D136" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6" t="s">
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
-      <c r="K136" s="6" t="s">
+      <c r="I136" s="20"/>
+      <c r="J136" s="20"/>
+      <c r="K136" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L136" s="6"/>
-      <c r="M136" s="6"/>
+      <c r="L136" s="20"/>
+      <c r="M136" s="20"/>
     </row>
     <row r="137" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>1</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C137" s="7"/>
-      <c r="D137" s="16" t="s">
+      <c r="C137" s="10"/>
+      <c r="D137" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="E137" s="16"/>
-      <c r="F137" s="16"/>
-      <c r="G137" s="16"/>
-      <c r="H137" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I137" s="8"/>
-      <c r="J137" s="8"/>
-      <c r="K137" s="13">
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="17">
         <v>2574</v>
       </c>
-      <c r="L137" s="13"/>
-      <c r="M137" s="14"/>
+      <c r="L137" s="17"/>
+      <c r="M137" s="18"/>
     </row>
     <row r="138" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="61" t="s">
+      <c r="A138" s="8" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="15" t="s">
+      <c r="A139" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B139" s="15"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D139" s="6" t="s">
+      <c r="D139" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6" t="s">
+      <c r="E139" s="20"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="20"/>
+      <c r="H139" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
-      <c r="K139" s="6" t="s">
+      <c r="I139" s="20"/>
+      <c r="J139" s="20"/>
+      <c r="K139" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L139" s="6"/>
-      <c r="M139" s="6"/>
+      <c r="L139" s="20"/>
+      <c r="M139" s="20"/>
     </row>
     <row r="140" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="12">
+      <c r="A140" s="16">
         <v>1</v>
       </c>
-      <c r="B140" s="9"/>
+      <c r="B140" s="12"/>
       <c r="C140" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D140" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="K140" s="13">
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="17">
         <v>1266</v>
       </c>
-      <c r="L140" s="13"/>
-      <c r="M140" s="14"/>
+      <c r="L140" s="17"/>
+      <c r="M140" s="18"/>
     </row>
     <row r="141" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="61" t="s">
+      <c r="A141" s="8" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="15" t="s">
+      <c r="A142" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B142" s="15"/>
+      <c r="B142" s="19"/>
       <c r="C142" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D142" s="6" t="s">
+      <c r="D142" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6" t="s">
+      <c r="E142" s="20"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="6"/>
-      <c r="J142" s="6"/>
-      <c r="K142" s="6" t="s">
+      <c r="I142" s="20"/>
+      <c r="J142" s="20"/>
+      <c r="K142" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L142" s="6"/>
-      <c r="M142" s="6"/>
+      <c r="L142" s="20"/>
+      <c r="M142" s="20"/>
     </row>
     <row r="143" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="12">
+      <c r="A143" s="16">
         <v>1</v>
       </c>
-      <c r="B143" s="9"/>
+      <c r="B143" s="12"/>
       <c r="C143" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D143" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="8" t="s">
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="K143" s="13">
+      <c r="I143" s="11"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="17">
         <v>2156</v>
       </c>
-      <c r="L143" s="13"/>
-      <c r="M143" s="14"/>
+      <c r="L143" s="17"/>
+      <c r="M143" s="18"/>
     </row>
     <row r="144" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="61" t="s">
+      <c r="A144" s="8" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6605,51 +6684,51 @@
       <c r="A145" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6" t="s">
+      <c r="C145" s="20"/>
+      <c r="D145" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6" t="s">
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
-      <c r="K145" s="6" t="s">
+      <c r="I145" s="20"/>
+      <c r="J145" s="20"/>
+      <c r="K145" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L145" s="6"/>
-      <c r="M145" s="6"/>
+      <c r="L145" s="20"/>
+      <c r="M145" s="20"/>
     </row>
     <row r="146" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>1</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7" t="s">
+      <c r="C146" s="10"/>
+      <c r="D146" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
-      <c r="K146" s="9">
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="12">
         <v>539</v>
       </c>
-      <c r="L146" s="9"/>
-      <c r="M146" s="10"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="653">
@@ -7265,6 +7344,14 @@
     <mergeCell ref="D131:G131"/>
     <mergeCell ref="H131:J131"/>
     <mergeCell ref="K131:M131"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="D139:G139"/>
+    <mergeCell ref="H139:J139"/>
+    <mergeCell ref="K139:M139"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="H145:J145"/>
+    <mergeCell ref="K145:M145"/>
     <mergeCell ref="A133:B133"/>
     <mergeCell ref="D133:G133"/>
     <mergeCell ref="H133:J133"/>
@@ -7274,18 +7361,6 @@
     <mergeCell ref="H134:J134"/>
     <mergeCell ref="K134:M134"/>
     <mergeCell ref="K136:M136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="D137:G137"/>
-    <mergeCell ref="H137:J137"/>
-    <mergeCell ref="K137:M137"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="D139:G139"/>
-    <mergeCell ref="H139:J139"/>
-    <mergeCell ref="K139:M139"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="D145:G145"/>
-    <mergeCell ref="H145:J145"/>
-    <mergeCell ref="K145:M145"/>
     <mergeCell ref="B146:C146"/>
     <mergeCell ref="D146:G146"/>
     <mergeCell ref="H146:J146"/>
@@ -7306,6 +7381,10 @@
     <mergeCell ref="B136:C136"/>
     <mergeCell ref="D136:G136"/>
     <mergeCell ref="H136:J136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:G137"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="K137:M137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7315,20 +7394,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB61E945-63FB-4E84-90D2-BB3E37FDE3E7}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="61" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="6" t="s">
         <v>223</v>
       </c>
       <c r="B1" t="s">
@@ -7375,7 +7454,7 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="6" t="s">
         <v>239</v>
       </c>
     </row>
@@ -7401,7 +7480,7 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="6" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7415,10 +7494,10 @@
       <c r="C4" t="s">
         <v>232</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="6" t="s">
         <v>242</v>
       </c>
       <c r="F4">
@@ -7438,7 +7517,7 @@
       <c r="C5" t="s">
         <v>232</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="6" t="s">
         <v>244</v>
       </c>
       <c r="E5" t="s">
@@ -7464,7 +7543,7 @@
       <c r="D6" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="6" t="s">
         <v>248</v>
       </c>
       <c r="F6">
@@ -7487,7 +7566,7 @@
       <c r="D7" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="6" t="s">
         <v>251</v>
       </c>
       <c r="F7">
@@ -7510,7 +7589,7 @@
       <c r="D8" t="s">
         <v>253</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="6" t="s">
         <v>254</v>
       </c>
       <c r="F8">
@@ -7533,7 +7612,7 @@
       <c r="D9" t="s">
         <v>256</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="6" t="s">
         <v>257</v>
       </c>
       <c r="F9">
@@ -7556,13 +7635,13 @@
       <c r="D10" t="s">
         <v>259</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="6" t="s">
         <v>260</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="9">
         <v>0</v>
       </c>
     </row>
@@ -7579,7 +7658,7 @@
       <c r="D11" t="s">
         <v>262</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="6" t="s">
         <v>263</v>
       </c>
       <c r="F11">
@@ -7602,7 +7681,7 @@
       <c r="D12" t="s">
         <v>265</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="6" t="s">
         <v>266</v>
       </c>
       <c r="F12">
@@ -7625,7 +7704,7 @@
       <c r="D13" t="s">
         <v>268</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="6" t="s">
         <v>269</v>
       </c>
       <c r="F13">
@@ -7648,7 +7727,7 @@
       <c r="D14" t="s">
         <v>271</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="6" t="s">
         <v>272</v>
       </c>
       <c r="F14">
@@ -7665,4 +7744,298 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8435B769-1586-4713-AD11-16F05EF6B05F}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2">
+        <v>39</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2017</v>
+      </c>
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2017</v>
+      </c>
+      <c r="B5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="63">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2019</v>
+      </c>
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7" s="63">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" s="63">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2019</v>
+      </c>
+      <c r="B9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" s="63">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>277</v>
+      </c>
+      <c r="F10" s="63">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="63">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2019</v>
+      </c>
+      <c r="B12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="F12" s="63">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E13" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>